--- a/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_mean_of_iterations__6331_9495__1_2 .xlsx
+++ b/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_mean_of_iterations__6331_9495__1_2 .xlsx
@@ -502,16 +502,16 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6719969032647107</v>
+        <v>0.6666875750233875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00193436</v>
+        <v>0.00063716</v>
       </c>
       <c r="I2" t="n">
-        <v>0.772196897480345</v>
+        <v>0.768974238006437</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00129766</v>
+        <v>0.00037369</v>
       </c>
     </row>
     <row r="3">
@@ -536,16 +536,16 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6160911829013695</v>
+        <v>0.517143061734941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01067584</v>
+        <v>0.03984192</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7280069109881856</v>
+        <v>0.6752622120302597</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00656347</v>
+        <v>0.01831618</v>
       </c>
     </row>
     <row r="4">
@@ -570,16 +570,16 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6212391075791862</v>
+        <v>0.6220006283053774</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00217007</v>
+        <v>0.00092645</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7455790579923294</v>
+        <v>0.7460655115987513</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0016645</v>
+        <v>0.00070058</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>37986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6208785995174905</v>
+        <v>0.6160451093438843</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00405511</v>
+        <v>0.00461845</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7444385364697416</v>
+        <v>0.740164847058689</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00248314</v>
+        <v>0.00311683</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>44317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6225711480257796</v>
+        <v>0.6149136688932861</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00724809</v>
+        <v>0.00301161</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7442411563625356</v>
+        <v>0.738387160983188</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00469396</v>
+        <v>0.00211467</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>41150</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6264190934929212</v>
+        <v>0.6198061436633074</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00365644</v>
+        <v>0.00527849</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7472176590027044</v>
+        <v>0.7423521376943002</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00224148</v>
+        <v>0.00349913</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>50645</v>
       </c>
       <c r="G8" t="n">
-        <v>0.624579934485289</v>
+        <v>0.6110502168961827</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0039793</v>
+        <v>0.00561981</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7451085282165366</v>
+        <v>0.7348341105815226</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0028271</v>
+        <v>0.003578</v>
       </c>
     </row>
   </sheetData>
